--- a/fML기초/99_과제/3_제주맛집_크롤링_지도/files/Instagram_Crawling/4_3_location_counts.xlsx
+++ b/fML기초/99_과제/3_제주맛집_크롤링_지도/files/Instagram_Crawling/4_3_location_counts.xlsx
@@ -14,12 +14,798 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="264">
   <si>
     <t>place</t>
   </si>
   <si>
-    <t>한라산 사라오름</t>
+    <t>성수동</t>
+  </si>
+  <si>
+    <t>Arco  아르코</t>
+  </si>
+  <si>
+    <t>Seoul, Korea</t>
+  </si>
+  <si>
+    <t>연무장</t>
+  </si>
+  <si>
+    <t>성수동 성수2가</t>
+  </si>
+  <si>
+    <t>할아버지공장</t>
+  </si>
+  <si>
+    <t>KANTO CAFE</t>
+  </si>
+  <si>
+    <t>서울숲 Seoul Forest Park</t>
+  </si>
+  <si>
+    <t>헤이보울 hey.bowl</t>
+  </si>
+  <si>
+    <t>블루보틀 Blue Bottle 성수</t>
+  </si>
+  <si>
+    <t>옹근달</t>
+  </si>
+  <si>
+    <t>우란문화재단</t>
+  </si>
+  <si>
+    <t>뷰티포스마일 Beautyforsmile</t>
+  </si>
+  <si>
+    <t>성수연방</t>
+  </si>
+  <si>
+    <t>BBHAY</t>
+  </si>
+  <si>
+    <t>성수</t>
+  </si>
+  <si>
+    <t>이태리차차</t>
+  </si>
+  <si>
+    <t>커피사피엔스 성수점</t>
+  </si>
+  <si>
+    <t>성수동 어딘가</t>
+  </si>
+  <si>
+    <t>서울숲</t>
+  </si>
+  <si>
+    <t>소바식당</t>
+  </si>
+  <si>
+    <t>성수동근처</t>
+  </si>
+  <si>
+    <t>카페 포제 - cafe poze</t>
+  </si>
+  <si>
+    <t>성수다락</t>
+  </si>
+  <si>
+    <t>cociety</t>
+  </si>
+  <si>
+    <t>유어네임히얼</t>
+  </si>
+  <si>
+    <t>아모레성수</t>
+  </si>
+  <si>
+    <t>Cheongdam-dong</t>
+  </si>
+  <si>
+    <t>뚝섬 미술관</t>
+  </si>
+  <si>
+    <t>청담동 Cheongdam dong</t>
+  </si>
+  <si>
+    <t>대림 창고</t>
+  </si>
+  <si>
+    <t>Cafe Onion</t>
+  </si>
+  <si>
+    <t>성수동뚝도시장</t>
+  </si>
+  <si>
+    <t>키메네상점</t>
+  </si>
+  <si>
+    <t>제스티살룬 Zesty Saloon</t>
+  </si>
+  <si>
+    <t>성수동 어반소스</t>
+  </si>
+  <si>
+    <t>쎈느 서울 성수</t>
+  </si>
+  <si>
+    <t>다로베darobe</t>
+  </si>
+  <si>
+    <t>빅토리아 베이커리</t>
+  </si>
+  <si>
+    <t>ㅊa</t>
+  </si>
+  <si>
+    <t>성수빈티지</t>
+  </si>
+  <si>
+    <t>시몬스 하드웨어 스토어</t>
+  </si>
+  <si>
+    <t>오토데포</t>
+  </si>
+  <si>
+    <t>온화 성수점</t>
+  </si>
+  <si>
+    <t>성수동어느건물</t>
+  </si>
+  <si>
+    <t>로스트 성수</t>
+  </si>
+  <si>
+    <t>성수동 우디집</t>
+  </si>
+  <si>
+    <t>Raw Coffee Stand</t>
+  </si>
+  <si>
+    <t>Hanoi102</t>
+  </si>
+  <si>
+    <t>성수명당</t>
+  </si>
+  <si>
+    <t>누메로도스</t>
+  </si>
+  <si>
+    <t>orer 오르에르</t>
+  </si>
+  <si>
+    <t>구욱희씨</t>
+  </si>
+  <si>
+    <t>Carnaby Street</t>
+  </si>
+  <si>
+    <t>핑거팁스</t>
+  </si>
+  <si>
+    <t>무드랩 Moodlab</t>
+  </si>
+  <si>
+    <t>뚝섬 어딘가</t>
+  </si>
+  <si>
+    <t>성수동 호호식당</t>
+  </si>
+  <si>
+    <t>성수동 카페거리</t>
+  </si>
+  <si>
+    <t>Daegu, South Korea</t>
+  </si>
+  <si>
+    <t>Super Matcha 슈퍼말차</t>
+  </si>
+  <si>
+    <t>세라성수점</t>
+  </si>
+  <si>
+    <t>BNHR</t>
+  </si>
+  <si>
+    <t>SCENE SEOUL</t>
+  </si>
+  <si>
+    <t>건대 스타시티 준오헤어</t>
+  </si>
+  <si>
+    <t>센터커피 - Center Coffee</t>
+  </si>
+  <si>
+    <t>헤이그라운드 서울숲</t>
+  </si>
+  <si>
+    <t>식물관PH</t>
+  </si>
+  <si>
+    <t>Mammamia 도산</t>
+  </si>
+  <si>
+    <t>커피 한 잔</t>
+  </si>
+  <si>
+    <t>린다비스타</t>
+  </si>
+  <si>
+    <t>Kuna</t>
+  </si>
+  <si>
+    <t>레몬그라스 / lemongrass</t>
+  </si>
+  <si>
+    <t>아르코커피</t>
+  </si>
+  <si>
+    <t>Eert</t>
+  </si>
+  <si>
+    <t>성수동 어니언</t>
+  </si>
+  <si>
+    <t>성수골목</t>
+  </si>
+  <si>
+    <t>천상가옥</t>
+  </si>
+  <si>
+    <t>카멜 커피</t>
+  </si>
+  <si>
+    <t>포메이커-Formaker</t>
+  </si>
+  <si>
+    <t>앤드밀</t>
+  </si>
+  <si>
+    <t>Elephant seoul - 엘리펀트카페</t>
+  </si>
+  <si>
+    <t>우동가조쿠</t>
+  </si>
+  <si>
+    <t>바이산 대림창고점</t>
+  </si>
+  <si>
+    <t>뉴트로 성수</t>
+  </si>
+  <si>
+    <t>Meganate</t>
+  </si>
+  <si>
+    <t>카페라잌유</t>
+  </si>
+  <si>
+    <t>공간 와디즈</t>
+  </si>
+  <si>
+    <t>Nontanto</t>
+  </si>
+  <si>
+    <t>성수역</t>
+  </si>
+  <si>
+    <t>Kusoy 쿠소이</t>
+  </si>
+  <si>
+    <t>Fe26.seoul</t>
+  </si>
+  <si>
+    <t>Myosaㅣ묘사서울</t>
+  </si>
+  <si>
+    <t>Hosting House</t>
+  </si>
+  <si>
+    <t>낙원테산도성수</t>
+  </si>
+  <si>
+    <t>건대입구역</t>
+  </si>
+  <si>
+    <t>Balance 발렁스</t>
+  </si>
+  <si>
+    <t>마를리</t>
+  </si>
+  <si>
+    <t>성수동1가</t>
+  </si>
+  <si>
+    <t>보이어 - boyer</t>
+  </si>
+  <si>
+    <t>Peercoffee roasters 피어커피</t>
+  </si>
+  <si>
+    <t>현대백화점</t>
+  </si>
+  <si>
+    <t>B101workroom</t>
+  </si>
+  <si>
+    <t>카페 글로우</t>
+  </si>
+  <si>
+    <t>플디</t>
+  </si>
+  <si>
+    <t>프릳츠 2호점</t>
+  </si>
+  <si>
+    <t>성수동2가 289-230 타로스토리</t>
+  </si>
+  <si>
+    <t>가비당성수</t>
+  </si>
+  <si>
+    <t>Busan, South Korea</t>
+  </si>
+  <si>
+    <t>Popina Seoul</t>
+  </si>
+  <si>
+    <t>완전 행복한 내생일</t>
+  </si>
+  <si>
+    <t>하루앤원데이 Haru &amp; One Day</t>
+  </si>
+  <si>
+    <t>화정다방</t>
+  </si>
+  <si>
+    <t>선데이사운즈</t>
+  </si>
+  <si>
+    <t>Humbolt</t>
+  </si>
+  <si>
+    <t>토우드 갤러리</t>
+  </si>
+  <si>
+    <t>연희동</t>
+  </si>
+  <si>
+    <t>올드나이브스 성수</t>
+  </si>
+  <si>
+    <t>랑데자뷰 건대</t>
+  </si>
+  <si>
+    <t>메가박스 성수</t>
+  </si>
+  <si>
+    <t>뚝섬역4번출구</t>
+  </si>
+  <si>
+    <t>피자시즌</t>
+  </si>
+  <si>
+    <t>카페라니_cafe rani</t>
+  </si>
+  <si>
+    <t>에머이 성수점</t>
+  </si>
+  <si>
+    <t>하남어딘가</t>
+  </si>
+  <si>
+    <t>성수스타우트</t>
+  </si>
+  <si>
+    <t>카페얀</t>
+  </si>
+  <si>
+    <t>성수역 어딘가</t>
+  </si>
+  <si>
+    <t>Bimbom</t>
+  </si>
+  <si>
+    <t>바스버거 성수점</t>
+  </si>
+  <si>
+    <t>메쉬커피 Meshcoffee</t>
+  </si>
+  <si>
+    <t>카페 심도 - Cafe Simdo</t>
+  </si>
+  <si>
+    <t>Changwon</t>
+  </si>
+  <si>
+    <t>오브젝트 성수점</t>
+  </si>
+  <si>
+    <t>Veke</t>
+  </si>
+  <si>
+    <t>뚝섬역</t>
+  </si>
+  <si>
+    <t>MOG</t>
+  </si>
+  <si>
+    <t>서촌마을 골목</t>
+  </si>
+  <si>
+    <t>Ndd</t>
+  </si>
+  <si>
+    <t>LE FREAK</t>
+  </si>
+  <si>
+    <t>Rsg_seongsu</t>
+  </si>
+  <si>
+    <t>술있는식탁</t>
+  </si>
+  <si>
+    <t>Momento Brewers</t>
+  </si>
+  <si>
+    <t>뚝섬한강공원</t>
+  </si>
+  <si>
+    <t>데어바타테</t>
+  </si>
+  <si>
+    <t>Fault Burger</t>
+  </si>
+  <si>
+    <t>K현대미술관</t>
+  </si>
+  <si>
+    <t>현명한 소비의 시작, 오브젝트</t>
+  </si>
+  <si>
+    <t>Camouflage coffee</t>
+  </si>
+  <si>
+    <t>Cafe Scene</t>
+  </si>
+  <si>
+    <t>텐동식당</t>
+  </si>
+  <si>
+    <t>외가집</t>
+  </si>
+  <si>
+    <t>Immute</t>
+  </si>
+  <si>
+    <t>Lowkey 성수점</t>
+  </si>
+  <si>
+    <t>후식당 後食糖</t>
+  </si>
+  <si>
+    <t>거의끝집</t>
+  </si>
+  <si>
+    <t>cumulus</t>
+  </si>
+  <si>
+    <t>명동</t>
+  </si>
+  <si>
+    <t>Coffee Interview 커피인터뷰</t>
+  </si>
+  <si>
+    <t>서울숲 언저리</t>
+  </si>
+  <si>
+    <t>Cafe &amp; Other</t>
+  </si>
+  <si>
+    <t>윤경 倫敬 성수동</t>
+  </si>
+  <si>
+    <t>인리치아이래쉬</t>
+  </si>
+  <si>
+    <t>서울 건대입구</t>
+  </si>
+  <si>
+    <t>우정돈식당</t>
+  </si>
+  <si>
+    <t>영스데이</t>
+  </si>
+  <si>
+    <t>매드만조</t>
+  </si>
+  <si>
+    <t>달리아스파 건대점</t>
+  </si>
+  <si>
+    <t>마켓온오프</t>
+  </si>
+  <si>
+    <t>필무드</t>
+  </si>
+  <si>
+    <t>오레노카츠</t>
+  </si>
+  <si>
+    <t>Changwon, Korea</t>
+  </si>
+  <si>
+    <t>Mark69</t>
+  </si>
+  <si>
+    <t>성수 길거리 어딘가</t>
+  </si>
+  <si>
+    <t>토라식당</t>
+  </si>
+  <si>
+    <t>사진창고 Beantree</t>
+  </si>
+  <si>
+    <t>TEgg.42 - 테그42</t>
+  </si>
+  <si>
+    <t>포맨스</t>
+  </si>
+  <si>
+    <t>펍포레스트</t>
+  </si>
+  <si>
+    <t>FAVOR SEOUL</t>
+  </si>
+  <si>
+    <t>오거트</t>
+  </si>
+  <si>
+    <t>연남동 어딘가</t>
+  </si>
+  <si>
+    <t>평이담백 뼈칼국수</t>
+  </si>
+  <si>
+    <t>남원시립 김병종 미술관</t>
+  </si>
+  <si>
+    <t>Scenery 시너리</t>
+  </si>
+  <si>
+    <t>Hotel Poco</t>
+  </si>
+  <si>
+    <t>성수부두ㅡ뱃놈시즌3</t>
+  </si>
+  <si>
+    <t>Cafe Loop</t>
+  </si>
+  <si>
+    <t>다르시</t>
+  </si>
+  <si>
+    <t>한남동</t>
+  </si>
+  <si>
+    <t>멜로워 코리아 - Mellower Korea Co.,Ltd</t>
+  </si>
+  <si>
+    <t>비에이치테이블</t>
+  </si>
+  <si>
+    <t>세스크멘슬</t>
+  </si>
+  <si>
+    <t>Saisa</t>
+  </si>
+  <si>
+    <t>굿갓</t>
+  </si>
+  <si>
+    <t>상하목장</t>
+  </si>
+  <si>
+    <t>スターバックス太宰府天満宮表参道店</t>
+  </si>
+  <si>
+    <t>피크닉 Piknic</t>
+  </si>
+  <si>
+    <t>데일리오아시스 샤로수길점</t>
+  </si>
+  <si>
+    <t>성수미술관</t>
+  </si>
+  <si>
+    <t>다포케</t>
+  </si>
+  <si>
+    <t>유어네이키드치즈</t>
+  </si>
+  <si>
+    <t>폴라앳홈 스토어</t>
+  </si>
+  <si>
+    <t>밤가시마을</t>
+  </si>
+  <si>
+    <t>중앙감속기</t>
+  </si>
+  <si>
+    <t>서울숲 오후</t>
+  </si>
+  <si>
+    <t>나인원 한남</t>
+  </si>
+  <si>
+    <t>디그루브</t>
+  </si>
+  <si>
+    <t>Below Seongsoo</t>
+  </si>
+  <si>
+    <t>빵의 정석</t>
+  </si>
+  <si>
+    <t>Damyang</t>
+  </si>
+  <si>
+    <t>Contempo</t>
+  </si>
+  <si>
+    <t>Coffeos (커피오스)</t>
+  </si>
+  <si>
+    <t>스케줄청담</t>
+  </si>
+  <si>
+    <t>바위파스타바</t>
+  </si>
+  <si>
+    <t>오늘와인한잔</t>
+  </si>
+  <si>
+    <t>Ezer Coffee</t>
+  </si>
+  <si>
+    <t>Daejeon</t>
+  </si>
+  <si>
+    <t>Spinning Wolf - Seongsu</t>
+  </si>
+  <si>
+    <t>홍화돈</t>
+  </si>
+  <si>
+    <t>크리커</t>
+  </si>
+  <si>
+    <t>삼청동길 Samcheongdong Gil</t>
+  </si>
+  <si>
+    <t>Goraebar</t>
+  </si>
+  <si>
+    <t>Les601</t>
+  </si>
+  <si>
+    <t>힌스 아틀리에</t>
+  </si>
+  <si>
+    <t>Calice Italian caffè Bistrò 칼리체</t>
+  </si>
+  <si>
+    <t>성수갈비골목</t>
+  </si>
+  <si>
+    <t>온량</t>
+  </si>
+  <si>
+    <t>New York, New York</t>
+  </si>
+  <si>
+    <t>성수 카페조이</t>
+  </si>
+  <si>
+    <t>압구정 Apgujeong</t>
+  </si>
+  <si>
+    <t>송리단길 SongniDan-gil</t>
+  </si>
+  <si>
+    <t>오브코하우스</t>
+  </si>
+  <si>
+    <t>에딧숍 #editshop</t>
+  </si>
+  <si>
+    <t>잇샐러드</t>
+  </si>
+  <si>
+    <t>카페.오롯 Cafe.orot</t>
+  </si>
+  <si>
+    <t>5to7</t>
+  </si>
+  <si>
+    <t>Dorrell 6z4</t>
+  </si>
+  <si>
+    <t>블루보틀 삼청 Bluebottle Samcheong</t>
+  </si>
+  <si>
+    <t>망원동티라미수 연남동점</t>
+  </si>
+  <si>
+    <t>진해</t>
+  </si>
+  <si>
+    <t>성수 봄의정원</t>
+  </si>
+  <si>
+    <t>프라이데이 무브먼트</t>
+  </si>
+  <si>
+    <t>매운향솥</t>
+  </si>
+  <si>
+    <t>애월 어딘가</t>
+  </si>
+  <si>
+    <t>레이더</t>
+  </si>
+  <si>
+    <t>Affiel Tower</t>
+  </si>
+  <si>
+    <t>성수동 안씨네쭈꾸미</t>
+  </si>
+  <si>
+    <t>신안군 퍼플교</t>
+  </si>
+  <si>
+    <t>Erolpa - 에롤파</t>
+  </si>
+  <si>
+    <t>Cafe Cha</t>
+  </si>
+  <si>
+    <t>여음</t>
+  </si>
+  <si>
+    <t>탐광</t>
+  </si>
+  <si>
+    <t>Brewing Ceremony</t>
+  </si>
+  <si>
+    <t>하루나</t>
+  </si>
+  <si>
+    <t>해남식당 성수동맛집</t>
+  </si>
+  <si>
+    <t>Bnhr 성수</t>
+  </si>
+  <si>
+    <t>성수동 빌런《villain》</t>
+  </si>
+  <si>
+    <t>캘리소프트서브 서울숲점</t>
+  </si>
+  <si>
+    <t>오키로북스 파크</t>
+  </si>
+  <si>
+    <t>헤이보울</t>
+  </si>
+  <si>
+    <t>칼퇴근길</t>
+  </si>
+  <si>
+    <t>행복한 주말</t>
   </si>
 </sst>
 </file>
@@ -377,7 +1163,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -393,6 +1179,2102 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B264">
         <v>1</v>
       </c>
     </row>
